--- a/Synoptic/Data/2020-11/202011_GHG_Key.xlsx
+++ b/Synoptic/Data/2020-11/202011_GHG_Key.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26101"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erh82/Dropbox/WetlandConnectCarbon_NSF/data_ghg/2020-11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Projects\Synoptic\Data\2020-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58480AE-3C83-4CF2-A061-904395EF1DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29900" yWindow="-5140" windowWidth="38060" windowHeight="12000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="288">
   <si>
     <t>AG-SW</t>
   </si>
@@ -906,7 +897,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1303,32 +1294,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:I1048576"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="95.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="95.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
@@ -1363,9 +1354,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1374,30 +1365,33 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
+        <v>59</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="H2" s="3">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1406,30 +1400,33 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>160</v>
+        <v>91</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="H3" s="3">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1438,111 +1435,129 @@
         <v>35</v>
       </c>
       <c r="D4">
+        <v>20201031</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>20201030</v>
       </c>
-      <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="3">
         <v>12.3</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>50</v>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>20201030</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="3">
+        <v>12.3</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>50</v>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>20201030</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12.3</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1551,19 +1566,19 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>165</v>
+        <v>61</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="H8" s="3">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1572,9 +1587,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1583,19 +1598,19 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>166</v>
+        <v>93</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="H9" s="3">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1604,9 +1619,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1615,19 +1630,19 @@
         <v>35</v>
       </c>
       <c r="D10">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>167</v>
+        <v>125</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="H10" s="3">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1636,9 +1651,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1647,30 +1662,30 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>168</v>
+        <v>62</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="H11" s="3">
-        <v>14.6</v>
+        <v>9.5</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1679,30 +1694,30 @@
         <v>34</v>
       </c>
       <c r="D12">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>169</v>
+        <v>94</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="H12" s="3">
-        <v>14.6</v>
+        <v>9.5</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1711,30 +1726,30 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>170</v>
+        <v>126</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="H13" s="3">
-        <v>14.6</v>
+        <v>9.5</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1743,30 +1758,30 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>171</v>
+        <v>63</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="H14" s="3">
-        <v>14.6</v>
+        <v>13.4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1775,30 +1790,30 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>172</v>
+        <v>95</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="H15" s="3">
-        <v>14.6</v>
+        <v>13.4</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1807,30 +1822,30 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>173</v>
+        <v>127</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="H16" s="3">
-        <v>14.6</v>
+        <v>13.4</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1839,19 +1854,19 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>20201030</v>
+        <v>20201101</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>174</v>
+        <v>64</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="H17" s="3">
-        <v>13.8</v>
+        <v>11.6</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1860,9 +1875,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -1871,19 +1886,19 @@
         <v>34</v>
       </c>
       <c r="D18">
-        <v>20201030</v>
+        <v>20201101</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>175</v>
+        <v>96</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="H18" s="3">
-        <v>13.8</v>
+        <v>11.6</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1892,9 +1907,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1903,19 +1918,19 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>20201030</v>
+        <v>20201101</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>176</v>
+        <v>128</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="H19" s="3">
-        <v>13.8</v>
+        <v>11.6</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1924,9 +1939,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1938,13 +1953,13 @@
         <v>20201030</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H20" s="3">
-        <v>14.4</v>
+        <v>13</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>45</v>
@@ -1956,9 +1971,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1970,13 +1985,13 @@
         <v>20201030</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H21" s="3">
-        <v>14.4</v>
+        <v>13</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>45</v>
@@ -1988,9 +2003,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2002,13 +2017,13 @@
         <v>20201030</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H22" s="3">
-        <v>14.4</v>
+        <v>13</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>45</v>
@@ -2020,9 +2035,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2034,13 +2049,13 @@
         <v>20201030</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H23" s="3">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>45</v>
@@ -2052,9 +2067,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -2066,13 +2081,13 @@
         <v>20201030</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H24" s="3">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>45</v>
@@ -2084,9 +2099,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -2098,13 +2113,13 @@
         <v>20201030</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H25" s="3">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>45</v>
@@ -2116,9 +2131,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -2130,27 +2145,27 @@
         <v>20201030</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H26" s="3">
-        <v>13.2</v>
+        <v>14.6</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -2162,27 +2177,27 @@
         <v>20201030</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H27" s="3">
-        <v>13.2</v>
+        <v>14.6</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2194,27 +2209,27 @@
         <v>20201030</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H28" s="3">
-        <v>13.2</v>
+        <v>14.6</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2223,30 +2238,30 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>20201101</v>
+        <v>20201031</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
-        <v>186</v>
+        <v>68</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="H29" s="3">
-        <v>9.5</v>
+        <v>13.3</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2255,30 +2270,30 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>20201101</v>
+        <v>20201031</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" t="s">
-        <v>187</v>
+        <v>100</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="H30" s="3">
-        <v>9.5</v>
+        <v>13.3</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2287,192 +2302,222 @@
         <v>35</v>
       </c>
       <c r="D31">
+        <v>20201031</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>20201030</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>20201030</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H33" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>20201030</v>
+      </c>
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H34" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
         <v>20201101</v>
       </c>
-      <c r="E31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" t="s">
-        <v>188</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="3">
         <v>9.5</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" t="s">
-        <v>190</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" t="s">
-        <v>191</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" t="s">
-        <v>192</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>52</v>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>20201101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3" t="s">
-        <v>50</v>
+        <v>187</v>
+      </c>
+      <c r="H36" s="3">
+        <v>9.5</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>52</v>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>20201101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3" t="s">
-        <v>50</v>
+        <v>188</v>
+      </c>
+      <c r="H37" s="3">
+        <v>9.5</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -2484,13 +2529,13 @@
         <v>20201101</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" t="s">
-        <v>195</v>
+        <v>71</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="H38" s="3">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>53</v>
@@ -2502,9 +2547,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -2516,13 +2561,13 @@
         <v>20201101</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" t="s">
-        <v>196</v>
+        <v>103</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="H39" s="3">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>53</v>
@@ -2534,9 +2579,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -2548,13 +2593,13 @@
         <v>20201101</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
-      </c>
-      <c r="F40" t="s">
-        <v>197</v>
+        <v>135</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="H40" s="3">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>53</v>
@@ -2566,74 +2611,158 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>20201101</v>
+      </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>199</v>
+        <v>215</v>
+      </c>
+      <c r="H41" s="3">
+        <v>14.2</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>20201101</v>
+      </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
+      </c>
+      <c r="H42" s="3">
+        <v>14.2</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>20201101</v>
+      </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>201</v>
+        <v>217</v>
+      </c>
+      <c r="H43" s="3">
+        <v>14.2</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>20201101</v>
+      </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>202</v>
+        <v>218</v>
+      </c>
+      <c r="H44" s="3">
+        <v>15</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D45">
         <v>20201101</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="H45" s="3">
-        <v>9.9</v>
+        <v>15</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2642,30 +2771,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>20201101</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H46" s="3">
-        <v>9.9</v>
+        <v>15</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2674,7 +2803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
@@ -2682,16 +2811,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>20201101</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H47" s="3">
         <v>9.9</v>
@@ -2706,27 +2835,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D48">
         <v>20201101</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H48" s="3">
-        <v>15</v>
+        <v>9.9</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>52</v>
@@ -2738,27 +2867,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49">
         <v>20201101</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H49" s="3">
-        <v>15</v>
+        <v>9.9</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>52</v>
@@ -2770,7 +2899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -2778,16 +2907,16 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>20201101</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H50" s="3">
         <v>15</v>
@@ -2802,30 +2931,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D51">
         <v>20201101</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H51" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2834,263 +2963,228 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52">
         <v>20201101</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H52" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53">
-        <v>20201101</v>
-      </c>
-      <c r="E53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H53" s="3">
-        <v>10</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>20201101</v>
-      </c>
-      <c r="E54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H54" s="3">
-        <v>14.2</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55">
-        <v>20201101</v>
-      </c>
-      <c r="E55" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H55" s="3">
-        <v>14.2</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56">
-        <v>20201101</v>
-      </c>
-      <c r="E56" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H56" s="3">
-        <v>14.2</v>
+      <c r="F56" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>20201101</v>
-      </c>
-      <c r="E57" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H57" s="3">
-        <v>15</v>
+      <c r="J56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58">
-        <v>20201101</v>
-      </c>
-      <c r="E58" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H58" s="3">
-        <v>15</v>
+      <c r="J57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59">
-        <v>20201101</v>
-      </c>
-      <c r="E59" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H59" s="3">
-        <v>15</v>
+      <c r="J58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>50</v>
       </c>
@@ -3098,122 +3192,107 @@
         <v>50</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>221</v>
+        <v>52</v>
+      </c>
+      <c r="F60" t="s">
+        <v>193</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>20201031</v>
-      </c>
-      <c r="E61" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H61" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62">
-        <v>20201031</v>
-      </c>
-      <c r="E62" t="s">
-        <v>93</v>
-      </c>
       <c r="F62" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H62" s="3">
-        <v>11.5</v>
+        <v>221</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63">
-        <v>20201031</v>
-      </c>
-      <c r="E63" t="s">
-        <v>125</v>
+      <c r="J62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H63" s="3">
-        <v>11.5</v>
+        <v>225</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>50</v>
       </c>
@@ -3224,7 +3303,7 @@
         <v>48</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
@@ -3240,7 +3319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>50</v>
       </c>
@@ -3251,7 +3330,7 @@
         <v>48</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
@@ -3267,7 +3346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
@@ -3275,17 +3354,17 @@
         <v>50</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>50</v>
@@ -3294,114 +3373,92 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>20201101</v>
-      </c>
-      <c r="E67" t="s">
-        <v>80</v>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G67" t="s">
-        <v>228</v>
-      </c>
-      <c r="H67" s="3">
-        <v>10.7</v>
+        <v>246</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68">
-        <v>20201101</v>
-      </c>
-      <c r="E68" t="s">
-        <v>112</v>
+        <v>47</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G68" t="s">
-        <v>228</v>
-      </c>
-      <c r="H68" s="3">
-        <v>10.7</v>
+        <v>247</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69">
-        <v>20201101</v>
-      </c>
-      <c r="E69" t="s">
-        <v>144</v>
+        <v>47</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G69" t="s">
-        <v>228</v>
-      </c>
-      <c r="H69" s="3">
-        <v>10.7</v>
+        <v>284</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -3413,19 +3470,16 @@
         <v>20201101</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G70" t="s">
-        <v>228</v>
+        <v>76</v>
+      </c>
+      <c r="F70" t="s">
+        <v>195</v>
       </c>
       <c r="H70" s="3">
-        <v>15.5</v>
+        <v>9.1</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3434,9 +3488,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -3448,19 +3502,16 @@
         <v>20201101</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="G71" t="s">
-        <v>228</v>
+        <v>108</v>
+      </c>
+      <c r="F71" t="s">
+        <v>196</v>
       </c>
       <c r="H71" s="3">
-        <v>15.5</v>
+        <v>9.1</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3469,9 +3520,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -3483,19 +3534,16 @@
         <v>20201101</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G72" t="s">
-        <v>228</v>
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
+        <v>197</v>
       </c>
       <c r="H72" s="3">
-        <v>15.5</v>
+        <v>9.1</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3504,9 +3552,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -3515,22 +3563,19 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>20201101</v>
+        <v>20201030</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G73" t="s">
-        <v>228</v>
+        <v>77</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="H73" s="3">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3539,9 +3584,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -3550,22 +3595,19 @@
         <v>34</v>
       </c>
       <c r="D74">
-        <v>20201101</v>
+        <v>20201030</v>
       </c>
       <c r="E74" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G74" t="s">
-        <v>228</v>
+        <v>109</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="H74" s="3">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3574,9 +3616,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
@@ -3585,22 +3627,19 @@
         <v>35</v>
       </c>
       <c r="D75">
-        <v>20201101</v>
+        <v>20201030</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G75" t="s">
-        <v>228</v>
+        <v>141</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="H75" s="3">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3609,9 +3648,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -3620,22 +3659,19 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>20201101</v>
+        <v>20201030</v>
       </c>
       <c r="E76" t="s">
-        <v>88</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G76" t="s">
-        <v>228</v>
+        <v>78</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="H76" s="3">
-        <v>11</v>
+        <v>14.4</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -3644,9 +3680,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -3655,22 +3691,19 @@
         <v>34</v>
       </c>
       <c r="D77">
-        <v>20201101</v>
+        <v>20201030</v>
       </c>
       <c r="E77" t="s">
-        <v>120</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G77" t="s">
-        <v>228</v>
+        <v>110</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="H77" s="3">
-        <v>11</v>
+        <v>14.4</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -3679,9 +3712,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -3690,22 +3723,19 @@
         <v>35</v>
       </c>
       <c r="D78">
-        <v>20201101</v>
+        <v>20201030</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G78" t="s">
-        <v>228</v>
+        <v>142</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="H78" s="3">
-        <v>11</v>
+        <v>14.4</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -3714,9 +3744,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -3725,19 +3755,19 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>20201101</v>
+        <v>20201030</v>
       </c>
       <c r="E79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>241</v>
+        <v>79</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="H79" s="3">
-        <v>11.6</v>
+        <v>15.1</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3746,9 +3776,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -3757,19 +3787,19 @@
         <v>34</v>
       </c>
       <c r="D80">
-        <v>20201101</v>
+        <v>20201030</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>242</v>
+        <v>111</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="H80" s="3">
-        <v>11.6</v>
+        <v>15.1</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -3778,9 +3808,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -3789,111 +3819,135 @@
         <v>35</v>
       </c>
       <c r="D81">
+        <v>20201030</v>
+      </c>
+      <c r="E81" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H81" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
         <v>20201101</v>
       </c>
-      <c r="E81" t="s">
-        <v>128</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="H81" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="I81" s="3" t="s">
+      <c r="E82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G82" t="s">
+        <v>228</v>
+      </c>
+      <c r="H82" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>47</v>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83">
+        <v>20201101</v>
+      </c>
+      <c r="E83" t="s">
+        <v>112</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3" t="s">
-        <v>50</v>
+        <v>230</v>
+      </c>
+      <c r="G83" t="s">
+        <v>228</v>
+      </c>
+      <c r="H83" s="3">
+        <v>10.7</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <v>20201101</v>
+      </c>
+      <c r="E84" t="s">
+        <v>144</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3" t="s">
-        <v>50</v>
+        <v>231</v>
+      </c>
+      <c r="G84" t="s">
+        <v>228</v>
+      </c>
+      <c r="H84" s="3">
+        <v>10.7</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -3902,30 +3956,33 @@
         <v>2</v>
       </c>
       <c r="D85">
-        <v>20201031</v>
+        <v>20201101</v>
       </c>
       <c r="E85" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>248</v>
+        <v>232</v>
+      </c>
+      <c r="G85" t="s">
+        <v>228</v>
       </c>
       <c r="H85" s="3">
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -3934,30 +3991,33 @@
         <v>34</v>
       </c>
       <c r="D86">
-        <v>20201031</v>
+        <v>20201101</v>
       </c>
       <c r="E86" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>249</v>
+        <v>233</v>
+      </c>
+      <c r="G86" t="s">
+        <v>228</v>
       </c>
       <c r="H86" s="3">
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -3966,30 +4026,33 @@
         <v>35</v>
       </c>
       <c r="D87">
-        <v>20201031</v>
+        <v>20201101</v>
       </c>
       <c r="E87" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>250</v>
+        <v>234</v>
+      </c>
+      <c r="G87" t="s">
+        <v>228</v>
       </c>
       <c r="H87" s="3">
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -3998,30 +4061,33 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>20201031</v>
+        <v>20201101</v>
       </c>
       <c r="E88" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>251</v>
+        <v>235</v>
+      </c>
+      <c r="G88" t="s">
+        <v>228</v>
       </c>
       <c r="H88" s="3">
-        <v>13.4</v>
+        <v>15.2</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -4030,30 +4096,33 @@
         <v>34</v>
       </c>
       <c r="D89">
-        <v>20201031</v>
+        <v>20201101</v>
       </c>
       <c r="E89" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>252</v>
+        <v>236</v>
+      </c>
+      <c r="G89" t="s">
+        <v>228</v>
       </c>
       <c r="H89" s="3">
-        <v>13.4</v>
+        <v>15.2</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -4062,30 +4131,33 @@
         <v>35</v>
       </c>
       <c r="D90">
-        <v>20201031</v>
+        <v>20201101</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>253</v>
+        <v>237</v>
+      </c>
+      <c r="G90" t="s">
+        <v>228</v>
       </c>
       <c r="H90" s="3">
-        <v>13.4</v>
+        <v>15.2</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -4097,13 +4169,13 @@
         <v>20201031</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H91" s="3">
-        <v>13.3</v>
+        <v>9.9</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>47</v>
@@ -4112,12 +4184,12 @@
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -4129,13 +4201,13 @@
         <v>20201031</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H92" s="3">
-        <v>13.3</v>
+        <v>9.9</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>47</v>
@@ -4144,12 +4216,12 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -4161,13 +4233,13 @@
         <v>20201031</v>
       </c>
       <c r="E93" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H93" s="3">
-        <v>13.3</v>
+        <v>9.9</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>47</v>
@@ -4176,12 +4248,12 @@
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -4190,16 +4262,16 @@
         <v>2</v>
       </c>
       <c r="D94">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E94" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H94" s="3">
-        <v>12.7</v>
+        <v>10.7</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>47</v>
@@ -4208,12 +4280,12 @@
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -4222,16 +4294,16 @@
         <v>34</v>
       </c>
       <c r="D95">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E95" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H95" s="3">
-        <v>12.7</v>
+        <v>10.7</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>47</v>
@@ -4240,12 +4312,12 @@
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
@@ -4254,16 +4326,16 @@
         <v>35</v>
       </c>
       <c r="D96">
-        <v>20201030</v>
+        <v>20201031</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H96" s="3">
-        <v>12.7</v>
+        <v>10.7</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>47</v>
@@ -4272,12 +4344,12 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -4289,13 +4361,13 @@
         <v>20201031</v>
       </c>
       <c r="E97" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H97" s="3">
-        <v>9.9</v>
+        <v>13.6</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>47</v>
@@ -4304,12 +4376,12 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -4321,13 +4393,13 @@
         <v>20201031</v>
       </c>
       <c r="E98" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H98" s="3">
-        <v>9.9</v>
+        <v>13.6</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>47</v>
@@ -4336,12 +4408,12 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -4353,13 +4425,13 @@
         <v>20201031</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H99" s="3">
-        <v>9.9</v>
+        <v>13.6</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>47</v>
@@ -4368,12 +4440,12 @@
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B100" t="s">
         <v>1</v>
@@ -4385,13 +4457,13 @@
         <v>20201031</v>
       </c>
       <c r="E100" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H100" s="3">
-        <v>10.7</v>
+        <v>14.7</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>47</v>
@@ -4400,12 +4472,12 @@
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
@@ -4417,13 +4489,13 @@
         <v>20201031</v>
       </c>
       <c r="E101" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H101" s="3">
-        <v>10.7</v>
+        <v>14.7</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>47</v>
@@ -4432,12 +4504,12 @@
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -4449,13 +4521,13 @@
         <v>20201031</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H102" s="3">
-        <v>10.7</v>
+        <v>14.7</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>47</v>
@@ -4464,12 +4536,12 @@
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -4481,13 +4553,13 @@
         <v>20201031</v>
       </c>
       <c r="E103" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H103" s="3">
-        <v>13.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>47</v>
@@ -4496,12 +4568,12 @@
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
@@ -4513,13 +4585,13 @@
         <v>20201031</v>
       </c>
       <c r="E104" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H104" s="3">
-        <v>13.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>47</v>
@@ -4528,12 +4600,12 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -4545,13 +4617,13 @@
         <v>20201031</v>
       </c>
       <c r="E105" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H105" s="3">
-        <v>13.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>47</v>
@@ -4560,12 +4632,12 @@
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
@@ -4574,30 +4646,33 @@
         <v>2</v>
       </c>
       <c r="D106">
-        <v>20201031</v>
+        <v>20201101</v>
       </c>
       <c r="E106" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>269</v>
+        <v>238</v>
+      </c>
+      <c r="G106" t="s">
+        <v>228</v>
       </c>
       <c r="H106" s="3">
-        <v>14.7</v>
+        <v>11</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
@@ -4606,30 +4681,33 @@
         <v>34</v>
       </c>
       <c r="D107">
-        <v>20201031</v>
+        <v>20201101</v>
       </c>
       <c r="E107" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>270</v>
+        <v>239</v>
+      </c>
+      <c r="G107" t="s">
+        <v>228</v>
       </c>
       <c r="H107" s="3">
-        <v>14.7</v>
+        <v>11</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
@@ -4638,30 +4716,33 @@
         <v>35</v>
       </c>
       <c r="D108">
-        <v>20201031</v>
+        <v>20201101</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>271</v>
+        <v>240</v>
+      </c>
+      <c r="G108" t="s">
+        <v>228</v>
       </c>
       <c r="H108" s="3">
-        <v>14.7</v>
+        <v>11</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B109" t="s">
         <v>1</v>
@@ -4673,27 +4754,27 @@
         <v>20201031</v>
       </c>
       <c r="E109" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H109" s="3">
-        <v>16.600000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J109">
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B110" t="s">
         <v>1</v>
@@ -4705,27 +4786,27 @@
         <v>20201031</v>
       </c>
       <c r="E110" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H110" s="3">
-        <v>16.600000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J110">
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B111" t="s">
         <v>1</v>
@@ -4737,27 +4818,27 @@
         <v>20201031</v>
       </c>
       <c r="E111" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H111" s="3">
-        <v>16.600000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J111">
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B112" t="s">
         <v>1</v>
@@ -4766,30 +4847,30 @@
         <v>2</v>
       </c>
       <c r="D112">
-        <v>20201031</v>
+        <v>20201030</v>
       </c>
       <c r="E112" t="s">
-        <v>89</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>275</v>
+        <v>90</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="H112" s="3">
-        <v>10.1</v>
+        <v>13.2</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B113" t="s">
         <v>1</v>
@@ -4798,30 +4879,30 @@
         <v>34</v>
       </c>
       <c r="D113">
-        <v>20201031</v>
+        <v>20201030</v>
       </c>
       <c r="E113" t="s">
-        <v>121</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>276</v>
+        <v>122</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="H113" s="3">
-        <v>10.1</v>
+        <v>13.2</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B114" t="s">
         <v>1</v>
@@ -4830,329 +4911,107 @@
         <v>35</v>
       </c>
       <c r="D114">
-        <v>20201031</v>
+        <v>20201030</v>
       </c>
       <c r="E114" t="s">
-        <v>153</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>277</v>
+        <v>154</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="H114" s="3">
-        <v>10.1</v>
+        <v>13.2</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
+        <v>198</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>203</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>204</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>205</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
         <v>278</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F119" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="I119" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E116" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
         <v>278</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F120" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="I120" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E117" t="s">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E121" t="s">
         <v>278</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="I121" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2</v>
-      </c>
-      <c r="D119">
-        <v>20201031</v>
-      </c>
-      <c r="E119" t="s">
-        <v>59</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H119" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="K119" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120" t="s">
-        <v>34</v>
-      </c>
-      <c r="D120">
-        <v>20201031</v>
-      </c>
-      <c r="E120" t="s">
-        <v>91</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H120" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J120">
-        <v>1</v>
-      </c>
-      <c r="K120" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" t="s">
-        <v>35</v>
-      </c>
-      <c r="D121">
-        <v>20201031</v>
-      </c>
-      <c r="E121" t="s">
-        <v>123</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H121" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J121">
-        <v>1</v>
-      </c>
-      <c r="K121" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:K121">
-    <sortCondition ref="F2:F121"/>
-    <sortCondition ref="E2:E121"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A2:A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.59765625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:A105">
-    <sortCondition ref="A2:A105"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K121">
+    <sortCondition ref="A2:A121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
